--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H2">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I2">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J2">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>0.1868419159951111</v>
+        <v>19.29477271607245</v>
       </c>
       <c r="R2">
-        <v>1.681577243956</v>
+        <v>173.652954444652</v>
       </c>
       <c r="S2">
-        <v>0.001935972800700427</v>
+        <v>0.201248726186081</v>
       </c>
       <c r="T2">
-        <v>0.001935972800700427</v>
+        <v>0.2012487261860811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H3">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I3">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J3">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
-        <v>0.5927700763324444</v>
+        <v>66.79379152073022</v>
       </c>
       <c r="R3">
-        <v>5.334930686992</v>
+        <v>601.144123686572</v>
       </c>
       <c r="S3">
-        <v>0.006142019785746342</v>
+        <v>0.6966739467984695</v>
       </c>
       <c r="T3">
-        <v>0.006142019785746342</v>
+        <v>0.6966739467984697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H4">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I4">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J4">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.0002046511906666667</v>
+        <v>9.660254905322557</v>
       </c>
       <c r="R4">
-        <v>0.001841860716</v>
+        <v>86.942294147903</v>
       </c>
       <c r="S4">
-        <v>2.120504580845717E-06</v>
+        <v>0.1007585848735895</v>
       </c>
       <c r="T4">
-        <v>2.120504580845717E-06</v>
+        <v>0.1007585848735896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,75 +708,75 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.583115666666667</v>
+      </c>
+      <c r="H5">
+        <v>22.749347</v>
+      </c>
+      <c r="I5">
+        <v>0.9996196502830235</v>
+      </c>
+      <c r="J5">
+        <v>0.9996196502830236</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.06729733333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.201892</v>
-      </c>
-      <c r="I5">
-        <v>0.008774653069109758</v>
-      </c>
-      <c r="J5">
-        <v>0.00877465306910976</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>0.0667661330488889</v>
+        <v>0.08996861197455555</v>
       </c>
       <c r="R5">
-        <v>0.6008951974400001</v>
+        <v>0.809717507771</v>
       </c>
       <c r="S5">
-        <v>0.0006918009639441768</v>
+        <v>0.0009383924248833902</v>
       </c>
       <c r="T5">
-        <v>0.0006918009639441768</v>
+        <v>0.0009383924248833905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06729733333333333</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H6">
-        <v>0.201892</v>
+        <v>0.008656</v>
       </c>
       <c r="I6">
-        <v>0.008774653069109758</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J6">
-        <v>0.00877465306910976</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003928</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N6">
-        <v>0.011784</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q6">
-        <v>0.0002643439253333333</v>
+        <v>0.007341553699555557</v>
       </c>
       <c r="R6">
-        <v>0.002379095328</v>
+        <v>0.06607398329600001</v>
       </c>
       <c r="S6">
-        <v>2.739014137968423E-06</v>
+        <v>7.657402095395167E-05</v>
       </c>
       <c r="T6">
-        <v>2.739014137968424E-06</v>
+        <v>7.657402095395168E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H7">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.776364333333333</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N7">
-        <v>8.329093</v>
+        <v>26.424676</v>
       </c>
       <c r="O7">
-        <v>0.2206324039768381</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P7">
-        <v>0.2206324039768381</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q7">
-        <v>21.05349187247456</v>
+        <v>0.02541466616177778</v>
       </c>
       <c r="R7">
-        <v>189.481426852271</v>
+        <v>0.228731995456</v>
       </c>
       <c r="S7">
-        <v>0.21814691530965</v>
+        <v>0.0002650805618063478</v>
       </c>
       <c r="T7">
-        <v>0.21814691530965</v>
+        <v>0.0002650805618063479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H8">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.808225333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N8">
-        <v>26.424676</v>
+        <v>3.821749</v>
       </c>
       <c r="O8">
-        <v>0.6999729490580858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P8">
-        <v>0.6999729490580857</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q8">
-        <v>66.79379152073022</v>
+        <v>0.003675673260444445</v>
       </c>
       <c r="R8">
-        <v>601.144123686572</v>
+        <v>0.03308105934400001</v>
       </c>
       <c r="S8">
-        <v>0.6920875487231252</v>
+        <v>3.833808111792357E-05</v>
       </c>
       <c r="T8">
-        <v>0.6920875487231251</v>
+        <v>3.833808111792357E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H9">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,462 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.003041</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N9">
-        <v>0.009123000000000001</v>
+        <v>0.035593</v>
       </c>
       <c r="O9">
-        <v>0.0002416624981232284</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P9">
-        <v>0.0002416624981232283</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q9">
-        <v>0.02306025474233334</v>
+        <v>3.423255644444444E-05</v>
       </c>
       <c r="R9">
-        <v>0.207542292681</v>
+        <v>0.000308093008</v>
       </c>
       <c r="S9">
-        <v>0.0002389400992845124</v>
+        <v>3.570530982621447E-07</v>
       </c>
       <c r="T9">
-        <v>0.0002389400992845123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.583115666666667</v>
-      </c>
-      <c r="H10">
-        <v>22.749347</v>
-      </c>
-      <c r="I10">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="J10">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.9921066666666668</v>
-      </c>
-      <c r="N10">
-        <v>2.97632</v>
-      </c>
-      <c r="O10">
-        <v>0.0788408337623728</v>
-      </c>
-      <c r="P10">
-        <v>0.07884083376237279</v>
-      </c>
-      <c r="Q10">
-        <v>7.523259607004446</v>
-      </c>
-      <c r="R10">
-        <v>67.70933646304</v>
-      </c>
-      <c r="S10">
-        <v>0.07795266867285761</v>
-      </c>
-      <c r="T10">
-        <v>0.07795266867285759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.583115666666667</v>
-      </c>
-      <c r="H11">
-        <v>22.749347</v>
-      </c>
-      <c r="I11">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="J11">
-        <v>0.9887347070403626</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.003928</v>
-      </c>
-      <c r="N11">
-        <v>0.011784</v>
-      </c>
-      <c r="O11">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P11">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q11">
-        <v>0.02978647833866667</v>
-      </c>
-      <c r="R11">
-        <v>0.268078305048</v>
-      </c>
-      <c r="S11">
-        <v>0.0003086342354454339</v>
-      </c>
-      <c r="T11">
-        <v>0.0003086342354454339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.019102</v>
-      </c>
-      <c r="H12">
-        <v>0.057306</v>
-      </c>
-      <c r="I12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.776364333333333</v>
-      </c>
-      <c r="N12">
-        <v>8.329093</v>
-      </c>
-      <c r="O12">
-        <v>0.2206324039768381</v>
-      </c>
-      <c r="P12">
-        <v>0.2206324039768381</v>
-      </c>
-      <c r="Q12">
-        <v>0.05303411149533332</v>
-      </c>
-      <c r="R12">
-        <v>0.477307003458</v>
-      </c>
-      <c r="S12">
-        <v>0.0005495158664877195</v>
-      </c>
-      <c r="T12">
-        <v>0.0005495158664877193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.019102</v>
-      </c>
-      <c r="H13">
-        <v>0.057306</v>
-      </c>
-      <c r="I13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.808225333333333</v>
-      </c>
-      <c r="N13">
-        <v>26.424676</v>
-      </c>
-      <c r="O13">
-        <v>0.6999729490580858</v>
-      </c>
-      <c r="P13">
-        <v>0.6999729490580857</v>
-      </c>
-      <c r="Q13">
-        <v>0.1682547203173333</v>
-      </c>
-      <c r="R13">
-        <v>1.514292482856</v>
-      </c>
-      <c r="S13">
-        <v>0.001743380549214331</v>
-      </c>
-      <c r="T13">
-        <v>0.001743380549214331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.019102</v>
-      </c>
-      <c r="H14">
-        <v>0.057306</v>
-      </c>
-      <c r="I14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.003041</v>
-      </c>
-      <c r="N14">
-        <v>0.009123000000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.0002416624981232284</v>
-      </c>
-      <c r="P14">
-        <v>0.0002416624981232283</v>
-      </c>
-      <c r="Q14">
-        <v>5.8089182E-05</v>
-      </c>
-      <c r="R14">
-        <v>0.000522802638</v>
-      </c>
-      <c r="S14">
-        <v>6.018942578702705E-07</v>
-      </c>
-      <c r="T14">
-        <v>6.018942578702704E-07</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.019102</v>
-      </c>
-      <c r="H15">
-        <v>0.057306</v>
-      </c>
-      <c r="I15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9921066666666668</v>
-      </c>
-      <c r="N15">
-        <v>2.97632</v>
-      </c>
-      <c r="O15">
-        <v>0.0788408337623728</v>
-      </c>
-      <c r="P15">
-        <v>0.07884083376237279</v>
-      </c>
-      <c r="Q15">
-        <v>0.01895122154666667</v>
-      </c>
-      <c r="R15">
-        <v>0.17056099392</v>
-      </c>
-      <c r="S15">
-        <v>0.0001963641255710231</v>
-      </c>
-      <c r="T15">
-        <v>0.000196364125571023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.019102</v>
-      </c>
-      <c r="H16">
-        <v>0.057306</v>
-      </c>
-      <c r="I16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.003928</v>
-      </c>
-      <c r="N16">
-        <v>0.011784</v>
-      </c>
-      <c r="O16">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P16">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q16">
-        <v>7.503265599999999E-05</v>
-      </c>
-      <c r="R16">
-        <v>0.0006752939040000001</v>
-      </c>
-      <c r="S16">
-        <v>7.774549966834667E-07</v>
-      </c>
-      <c r="T16">
-        <v>7.774549966834667E-07</v>
+        <v>3.570530982621448E-07</v>
       </c>
     </row>
   </sheetData>
